--- a/excel/contrcat_10600.xlsx
+++ b/excel/contrcat_10600.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17927"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hal\Documents\NetBeansProjects\hal-kanri\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10230"/>
   </bookViews>
   <sheets>
-    <sheet name="派遣元管理台帳" sheetId="1" r:id="rId4"/>
+    <sheet name="派遣元管理台帳" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>Hello, PHPExcel!</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>派遣元管理</t>
   </si>
@@ -188,42 +189,41 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
-    <numFmt numFmtId="164" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="165" formatCode="00000"/>
-    <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
-    <numFmt numFmtId="167" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
-    <numFmt numFmtId="168" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="169" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="00000"/>
+    <numFmt numFmtId="178" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
+    <numFmt numFmtId="180" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
     </font>
     <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -231,10 +231,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="none"/>
@@ -259,11 +256,21 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
@@ -278,19 +285,23 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="hair">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="hair">
         <color rgb="FF000000"/>
       </top>
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="hair">
         <color rgb="FF000000"/>
       </right>
@@ -300,131 +311,100 @@
       <bottom style="hair">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="166" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="167" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="167" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="49" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="165" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="14" fillId="3" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="5" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="49" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="168" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="169" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="167" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="167" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="2" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection locked="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="35">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -714,379 +694,376 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G13" sqref="G13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:46" customHeight="1" ht="20.1" s="6" customFormat="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:46" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="5"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="32"/>
+      <c r="X1" s="32"/>
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32"/>
+      <c r="AA1" s="32"/>
+      <c r="AB1" s="32"/>
+      <c r="AC1" s="32"/>
+      <c r="AD1" s="32"/>
+      <c r="AE1" s="32"/>
+      <c r="AF1" s="32"/>
+      <c r="AG1" s="32"/>
+      <c r="AH1" s="32"/>
+      <c r="AI1" s="32"/>
+      <c r="AJ1" s="32"/>
+      <c r="AK1" s="32"/>
+      <c r="AL1" s="32"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="3"/>
     </row>
-    <row r="2" spans="1:46" customHeight="1" ht="20.1" s="18" customFormat="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:46" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="34"/>
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="H2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="8"/>
+      <c r="N2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="9"/>
+      <c r="P2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="14"/>
-      <c r="P2" s="15" t="s">
+      <c r="Q2" s="10"/>
+      <c r="R2" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12" t="s">
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+      <c r="AH2" s="31"/>
+      <c r="AI2" s="31"/>
+      <c r="AJ2" s="31"/>
+      <c r="AK2" s="31"/>
+      <c r="AL2" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12" t="s">
+      <c r="AM2" s="31"/>
+      <c r="AN2" s="31"/>
+      <c r="AO2" s="31"/>
+      <c r="AP2" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12" t="s">
+      <c r="AQ2" s="31"/>
+      <c r="AR2" s="31"/>
+      <c r="AS2" s="11"/>
+      <c r="AT2" s="12"/>
+    </row>
+    <row r="3" spans="1:46" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="17"/>
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="V3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ3" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="AK3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="AL3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AO3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="AR3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AS3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="AT3" s="17" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" customHeight="1" ht="20.1" s="23" customFormat="1">
-      <c r="A3" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="U3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="V3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="W3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="X3" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z3" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA3" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AG3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AH3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AI3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="AK3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="AL3" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AN3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="AO3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="AP3" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="AQ3" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AR3" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="AS3" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="AT3" s="22" t="s">
+    <row r="4" spans="1:46" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="19">
+        <v>3127</v>
+      </c>
+      <c r="B4" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:46" customHeight="1" ht="20.1" s="23" customFormat="1">
-      <c r="A4" s="24">
-        <v>3127</v>
-      </c>
-      <c r="B4" s="25" t="s">
+      <c r="C4" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="D4" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="E4" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="F4" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="G4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H4" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="K4" s="24"/>
+      <c r="L4" s="25">
+        <v>42828</v>
+      </c>
+      <c r="M4" s="25">
+        <v>42916</v>
+      </c>
+      <c r="N4" s="26">
+        <v>0.375</v>
+      </c>
+      <c r="O4" s="26">
+        <v>0.72916666666666996</v>
+      </c>
+      <c r="P4" s="27">
+        <v>0.51041666666666996</v>
+      </c>
+      <c r="Q4" s="27">
+        <v>0.54166666666666996</v>
+      </c>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
+      <c r="U4" s="24"/>
+      <c r="V4" s="24"/>
+      <c r="W4" s="24"/>
+      <c r="X4" s="24"/>
+      <c r="Y4" s="24"/>
+      <c r="Z4" s="24"/>
+      <c r="AA4" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="K4" s="29"/>
-      <c r="L4" s="30">
-        <v>42828</v>
-      </c>
-      <c r="M4" s="30">
-        <v>42916</v>
-      </c>
-      <c r="N4" s="31">
-        <v>0.375</v>
-      </c>
-      <c r="O4" s="31">
-        <v>0.72916666666667</v>
-      </c>
-      <c r="P4" s="32">
-        <v>0.51041666666667</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>0.54166666666667</v>
-      </c>
-      <c r="R4" s="29"/>
-      <c r="S4" s="29"/>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29"/>
-      <c r="V4" s="29"/>
-      <c r="W4" s="29"/>
-      <c r="X4" s="29"/>
-      <c r="Y4" s="29"/>
-      <c r="Z4" s="29"/>
-      <c r="AA4" s="33" t="s">
+      <c r="AB4" s="24"/>
+      <c r="AC4" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="AB4" s="29"/>
-      <c r="AC4" s="29" t="s">
+      <c r="AD4" s="24"/>
+      <c r="AE4" s="24"/>
+      <c r="AF4" s="24"/>
+      <c r="AG4" s="24"/>
+      <c r="AH4" s="24"/>
+      <c r="AI4" s="24"/>
+      <c r="AJ4" s="24"/>
+      <c r="AK4" s="24"/>
+      <c r="AL4" s="24"/>
+      <c r="AM4" s="24"/>
+      <c r="AN4" s="24"/>
+      <c r="AO4" s="24"/>
+      <c r="AP4" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="29"/>
-      <c r="AE4" s="29"/>
-      <c r="AF4" s="29"/>
-      <c r="AG4" s="29"/>
-      <c r="AH4" s="29"/>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29"/>
-      <c r="AK4" s="29"/>
-      <c r="AL4" s="29"/>
-      <c r="AM4" s="29"/>
-      <c r="AN4" s="29"/>
-      <c r="AO4" s="29"/>
-      <c r="AP4" s="34" t="s">
+      <c r="AQ4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AR4" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS4" s="30" t="s">
         <v>54</v>
-      </c>
-      <c r="AQ4" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AR4" s="34" t="s">
-        <v>54</v>
-      </c>
-      <c r="AS4" s="35" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="17">
+    <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AD1:AK1"/>
     <mergeCell ref="AL1:AO1"/>
@@ -1103,18 +1080,9 @@
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="AB1:AC1"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/excel/contrcat_10600.xlsx
+++ b/excel/contrcat_10600.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="派遣元管理台帳" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="171027" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>派遣元管理</t>
   </si>
@@ -145,58 +145,17 @@
   </si>
   <si>
     <t>特定派遣</t>
-  </si>
-  <si>
-    <t>10976</t>
-  </si>
-  <si>
-    <t>正</t>
-  </si>
-  <si>
-    <t>小林 正明</t>
-  </si>
-  <si>
-    <t>ｺﾊﾞﾔｼ ﾏｻｱｷ</t>
-  </si>
-  <si>
-    <t>株式会社日本コンピュータコンサルタント</t>
-  </si>
-  <si>
-    <t>公23</t>
-  </si>
-  <si>
-    <t>株式会社日立ソリューションズ西日本</t>
-  </si>
-  <si>
-    <t>福岡県福岡市早良区百道浜2-1-1</t>
-  </si>
-  <si>
-    <t>092-844-0010</t>
-  </si>
-  <si>
-    <t>橋口　慎</t>
-  </si>
-  <si>
-    <t>後藤　博光</t>
-  </si>
-  <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>九州</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="6">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="00000"/>
     <numFmt numFmtId="178" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="[&lt;=999]000;[&lt;=9999]000\-00;000\-0000"/>
-    <numFmt numFmtId="180" formatCode="[$-411]ggge&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -226,7 +185,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,12 +207,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -317,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -355,40 +308,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="180" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
@@ -695,7 +618,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,43 +635,43 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="32"/>
-      <c r="AG1" s="32"/>
-      <c r="AH1" s="32"/>
-      <c r="AI1" s="32"/>
-      <c r="AJ1" s="32"/>
-      <c r="AK1" s="32"/>
-      <c r="AL1" s="32"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="19"/>
+      <c r="AB1" s="19"/>
+      <c r="AC1" s="19"/>
+      <c r="AD1" s="19"/>
+      <c r="AE1" s="19"/>
+      <c r="AF1" s="19"/>
+      <c r="AG1" s="19"/>
+      <c r="AH1" s="19"/>
+      <c r="AI1" s="19"/>
+      <c r="AJ1" s="19"/>
+      <c r="AK1" s="19"/>
+      <c r="AL1" s="19"/>
+      <c r="AM1" s="19"/>
+      <c r="AN1" s="19"/>
+      <c r="AO1" s="19"/>
+      <c r="AP1" s="19"/>
+      <c r="AQ1" s="19"/>
+      <c r="AR1" s="19"/>
       <c r="AS1" s="3"/>
     </row>
     <row r="2" spans="1:46" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -761,22 +684,22 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="34"/>
+      <c r="E2" s="22"/>
       <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="31" t="s">
+      <c r="H2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
@@ -789,45 +712,45 @@
         <v>9</v>
       </c>
       <c r="Q2" s="10"/>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="20"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31" t="s">
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31" t="s">
+      <c r="AC2" s="20"/>
+      <c r="AD2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
-      <c r="AH2" s="31"/>
-      <c r="AI2" s="31"/>
-      <c r="AJ2" s="31"/>
-      <c r="AK2" s="31"/>
-      <c r="AL2" s="31" t="s">
+      <c r="AE2" s="20"/>
+      <c r="AF2" s="20"/>
+      <c r="AG2" s="20"/>
+      <c r="AH2" s="20"/>
+      <c r="AI2" s="20"/>
+      <c r="AJ2" s="20"/>
+      <c r="AK2" s="20"/>
+      <c r="AL2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="AM2" s="31"/>
-      <c r="AN2" s="31"/>
-      <c r="AO2" s="31"/>
-      <c r="AP2" s="31" t="s">
+      <c r="AM2" s="20"/>
+      <c r="AN2" s="20"/>
+      <c r="AO2" s="20"/>
+      <c r="AP2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="31"/>
-      <c r="AR2" s="31"/>
+      <c r="AQ2" s="20"/>
+      <c r="AR2" s="20"/>
       <c r="AS2" s="11"/>
       <c r="AT2" s="12"/>
     </row>
@@ -969,117 +892,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:46" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="19">
-        <v>3127</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25">
-        <v>42828</v>
-      </c>
-      <c r="M4" s="25">
-        <v>42916</v>
-      </c>
-      <c r="N4" s="26">
-        <v>0.375</v>
-      </c>
-      <c r="O4" s="26">
-        <v>0.72916666666666996</v>
-      </c>
-      <c r="P4" s="27">
-        <v>0.51041666666666996</v>
-      </c>
-      <c r="Q4" s="27">
-        <v>0.54166666666666996</v>
-      </c>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24"/>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24"/>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24"/>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24"/>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24"/>
-      <c r="AP4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AR4" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="AS4" s="30" t="s">
-        <v>54</v>
-      </c>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AD1:AK1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AR1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AD2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/contrcat_10600.xlsx
+++ b/excel/contrcat_10600.xlsx
@@ -157,7 +157,7 @@
     <numFmt numFmtId="177" formatCode="00000"/>
     <numFmt numFmtId="178" formatCode="h&quot;時&quot;mm&quot;分&quot;;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -180,6 +180,13 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -274,9 +281,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -288,9 +292,7 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -312,8 +314,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -620,291 +629,284 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="1" max="1" width="9" style="22" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="4" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="19"/>
-      <c r="AB1" s="19"/>
-      <c r="AC1" s="19"/>
-      <c r="AD1" s="19"/>
-      <c r="AE1" s="19"/>
-      <c r="AF1" s="19"/>
-      <c r="AG1" s="19"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="19"/>
-      <c r="AJ1" s="19"/>
-      <c r="AK1" s="19"/>
-      <c r="AL1" s="19"/>
-      <c r="AM1" s="19"/>
-      <c r="AN1" s="19"/>
-      <c r="AO1" s="19"/>
-      <c r="AP1" s="19"/>
-      <c r="AQ1" s="19"/>
-      <c r="AR1" s="19"/>
-      <c r="AS1" s="3"/>
+    <row r="1" spans="1:46" s="3" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="16"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="2"/>
     </row>
-    <row r="2" spans="1:46" s="13" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:46" s="10" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="8" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="9" t="s">
+      <c r="M2" s="6"/>
+      <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="9"/>
-      <c r="P2" s="10" t="s">
+      <c r="O2" s="7"/>
+      <c r="P2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="20" t="s">
+      <c r="Q2" s="7"/>
+      <c r="R2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="20" t="s">
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="Z2" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="AA2" s="20"/>
-      <c r="AB2" s="20" t="s">
+      <c r="AA2" s="21"/>
+      <c r="AB2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="AC2" s="20"/>
-      <c r="AD2" s="20" t="s">
+      <c r="AC2" s="21"/>
+      <c r="AD2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="20"/>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20"/>
-      <c r="AH2" s="20"/>
-      <c r="AI2" s="20"/>
-      <c r="AJ2" s="20"/>
-      <c r="AK2" s="20"/>
-      <c r="AL2" s="20" t="s">
+      <c r="AE2" s="21"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="21"/>
+      <c r="AH2" s="21"/>
+      <c r="AI2" s="21"/>
+      <c r="AJ2" s="21"/>
+      <c r="AK2" s="21"/>
+      <c r="AL2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="AM2" s="20"/>
-      <c r="AN2" s="20"/>
-      <c r="AO2" s="20"/>
-      <c r="AP2" s="20" t="s">
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AQ2" s="20"/>
-      <c r="AR2" s="20"/>
-      <c r="AS2" s="11"/>
-      <c r="AT2" s="12"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="8"/>
+      <c r="AT2" s="9"/>
     </row>
-    <row r="3" spans="1:46" s="18" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+    <row r="3" spans="1:46" s="15" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="7" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="S3" s="7" t="s">
+      <c r="S3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="T3" s="7" t="s">
+      <c r="T3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="U3" s="7" t="s">
+      <c r="U3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="V3" s="7" t="s">
+      <c r="V3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="W3" s="7" t="s">
+      <c r="W3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="X3" s="7" t="s">
+      <c r="X3" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="7" t="s">
+      <c r="Y3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Z3" s="7" t="s">
+      <c r="Z3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="AA3" s="7" t="s">
+      <c r="AA3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="AB3" s="7" t="s">
+      <c r="AB3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="7" t="s">
+      <c r="AC3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AD3" s="7" t="s">
+      <c r="AD3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AE3" s="7" t="s">
+      <c r="AE3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AF3" s="7" t="s">
+      <c r="AF3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AG3" s="7" t="s">
+      <c r="AG3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AH3" s="7" t="s">
+      <c r="AH3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AI3" s="7" t="s">
+      <c r="AI3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AJ3" s="7" t="s">
+      <c r="AJ3" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="AK3" s="7" t="s">
+      <c r="AK3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="AL3" s="7" t="s">
+      <c r="AL3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="AM3" s="7" t="s">
+      <c r="AM3" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="AN3" s="7" t="s">
+      <c r="AN3" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AO3" s="7" t="s">
+      <c r="AO3" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AP3" s="7" t="s">
+      <c r="AP3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AQ3" s="7" t="s">
+      <c r="AQ3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AR3" s="7" t="s">
+      <c r="AR3" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AS3" s="17" t="s">
+      <c r="AS3" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="AT3" s="17" t="s">
+      <c r="AT3" s="14" t="s">
         <v>41</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="17">
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="R1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="R2:Y2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="AB2:AC2"/>
     <mergeCell ref="AB1:AC1"/>
     <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AD1:AK1"/>
@@ -912,9 +914,19 @@
     <mergeCell ref="AP1:AR1"/>
     <mergeCell ref="AD2:AK2"/>
     <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="R2:Y2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="R1:Y1"/>
+    <mergeCell ref="Z1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>